--- a/biology/Virologie/Fièvre_de_Kyasanur/Fièvre_de_Kyasanur.xlsx
+++ b/biology/Virologie/Fièvre_de_Kyasanur/Fièvre_de_Kyasanur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fi%C3%A8vre_de_Kyasanur</t>
+          <t>Fièvre_de_Kyasanur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fièvre de Kyasanur (en anglais, Kyasanur Forest disease  ou KFD) est une fièvre hémorragique virale transmise par les tiques, endémique dans le sous-continent indien, et provoquée par le Kyasanur Forest disease virus, une espèce de virus de la famille des Flaviviridae. La maladie a été signalée pour la première fois en forêt de Kyasanur dans l'État du Karnataka en Inde.
 La maladie est apparue d'abord sous la forme d’une manifestation épizootique parmi des singes, tuant plusieurs d’entre eux pendant l’année 1957. En conséquence la maladie est également connue sous le nom de  maladie du singe . La maladie est provoquée par un virus appartenant à la famille des flaviviridae. Les hôtes réservoirs pour la maladie sont les porcs-épics, les rats et les souris. Le vecteur de transmission de la maladie est Haemophysalis spinigera, une tique de forêt. Les humains contractent l'infection à la suite d’une piqûre de nymphes de tique. La maladie a un taux de morbidité élevé de l’ordre de 10 %.
